--- a/Data/EC/NIT-9007091591.xlsx
+++ b/Data/EC/NIT-9007091591.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3402188B-19E9-4185-9E59-3B5BB483E5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4CAF13-8D0D-4EC3-BE36-85EF0316B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC0379F4-06B6-4705-87F7-BD5C6EAD113E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92B31075-F70A-433E-A819-B975116FC493}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9148752</t>
+  </si>
+  <si>
+    <t>HUMBERTO DE JESUS MULET HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>22800539</t>
   </si>
   <si>
     <t>DARLY YANETH PEREA TUIRAN</t>
   </si>
   <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>73099457</t>
+  </si>
+  <si>
+    <t>RAFAEL SALAZAR MACHADO</t>
+  </si>
+  <si>
+    <t>19896330</t>
+  </si>
+  <si>
+    <t>CARLOS ALEXANDER FERNANDEZ CASTILLO</t>
+  </si>
+  <si>
     <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>73099457</t>
-  </si>
-  <si>
-    <t>RAFAEL SALAZAR MACHADO</t>
-  </si>
-  <si>
-    <t>9148752</t>
-  </si>
-  <si>
-    <t>HUMBERTO DE JESUS MULET HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>19896330</t>
-  </si>
-  <si>
-    <t>CARLOS ALEXANDER FERNANDEZ CASTILLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8FF9FA-29E6-60FE-F69F-E5B3330DC24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D90668-1349-4585-E821-032B0EFA033C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3076D89D-19CD-416C-A346-A5C60CDB62F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3295FAC-4926-491C-98D3-535C7FC7E285}">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>22624</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>31249</v>
@@ -1075,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1098,13 +1098,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1121,13 +1121,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1173,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>22624</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1190,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1213,13 +1213,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="24">
         <v>31249</v>

--- a/Data/EC/NIT-9007091591.xlsx
+++ b/Data/EC/NIT-9007091591.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4CAF13-8D0D-4EC3-BE36-85EF0316B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{006F68AD-B3AF-4F3A-95DB-AD3B14C58F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92B31075-F70A-433E-A819-B975116FC493}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3CD0502-9C06-49C2-867F-CBCBECB51893}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,29 +403,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +444,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D90668-1349-4585-E821-032B0EFA033C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65D559C-C1C0-C5AB-49A5-9E3720F8B029}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3295FAC-4926-491C-98D3-535C7FC7E285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42F7BDE-FE4E-40BE-8C02-0ED2CA31702A}">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -883,49 +889,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -933,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -949,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007091591</v>
       </c>
@@ -965,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>272616</v>
       </c>
@@ -1034,18 +1040,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>22624</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1057,18 +1063,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>31249</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>781242</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1080,18 +1086,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>31249</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>781242</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1103,18 +1109,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>31249</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>781242</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1126,18 +1132,18 @@
       <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>31249</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>781242</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1149,18 +1155,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>31249</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>781242</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1172,18 +1178,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>31249</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>781242</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1195,47 +1201,47 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>31249</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>781242</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="26">
         <v>31249</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="26">
         <v>781242</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="H29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1243,10 +1249,10 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="34"/>
       <c r="H30" s="1" t="s">
         <v>30</v>
       </c>
